--- a/medicine/Enfance/Sara_Shepard/Sara_Shepard.xlsx
+++ b/medicine/Enfance/Sara_Shepard/Sara_Shepard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sara Shepard, née le 8 avril 1977 à Philadelphie en Pennsylvanie, est une romancière et réalisatrice américaine.
 Diplômée de littérature au Brooklyn College de l'université de la ville de New York, elle s’est inspirée de sa jeunesse dans le comté de Chester en Pennsylvanie pour écrire sa série de romans Les Menteuses. Celle-ci est adaptée en série télévisée par I. Marlene King sous le titre Pretty Little Liars (titre original des romans). La série est diffusée sur ABC Family (rebaptisée Freeform en 2016) entre le 8 juin 2010 et le 27 juin 2017. Sara Shepard y fait deux apparitions : dans l'épisode 7 de la première saison et l'épisode 24 de la cinquième saison.
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série Les Menteuses
-(en) Ali's Pretty Little Lies, 2013Préquelle à la série
+          <t>Série Les Menteuses</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Ali's Pretty Little Lies, 2013Préquelle à la série
 Confidences, Fleuve noir, 2008 ((en) Pretty Little Liars, 2006)
 Secrets, Fleuve noir, 2008 ((en) Flawless, 2007)
 Rumeurs, Fleuve noir, 2008 ((en) Perfect, 2007)
@@ -538,25 +555,195 @@
 Vicieuses, Fleuve, 2016 ((en) Vicious, 2014)
 Pretty Little Liars - Intégrale 1 des Menteuses, Fleuve noir, coll. Territoires, 2013Contient les tomes 1 à 4
 Pretty Little Liars - Intégrale 2 des Menteuses, Fleuve, coll. Territoires, 2014Contient les tomes 5 à 8
-Pretty Little Liars - Intégrale 3 des Menteuses, Pocket Jeunesse, 2015Contient les tomes 9 à 12
-Série The Lying Game
-Tu es moi, Fleuve noir, coll. Territoires, 2012 ((en) The Lying Game, 2010)
+Pretty Little Liars - Intégrale 3 des Menteuses, Pocket Jeunesse, 2015Contient les tomes 9 à 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série The Lying Game</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tu es moi, Fleuve noir, coll. Territoires, 2012 ((en) The Lying Game, 2010)
 Ne jamais dire jamais, Fleuve noir, coll. Territoires, 2012 ((en) Never Have I Ever, 2011)
 Action ou Vérité, Fleuve noir, coll. Territoires, 2013 ((en) Two Truths and A Lie, 2012)
 Cache-cache, Fleuve noir, coll. Territoires, 2013 ((en) Hide and Seek, 2012)
 Croix de bois, croix de fer, Fleuve noir, coll. Territoires, 2014 ((en) Cross My Heart, Hope To Die, 2013)
-Pas vu, pas pris, Fleuve noir, coll. Territoires, 2014 ((en) Seven Minutes in Heaven, 2013)
-Série The Heiresses
-(en) The Heiresses, 2014
-Série Les Perfectionnistes
-Les Perfectionnistes, Pocket Jeunesse, 2015 ((en) The Perfectionists, 2014)
-Parfaitement mortelles, Pocket Jeunesse, 2016 ((en) The Good Girls, 2015)
-Série Les Amateurs
-Les Amateurs, Pocket Jeunesse, 2017 ((en) The Amateurs, 2016)
+Pas vu, pas pris, Fleuve noir, coll. Territoires, 2014 ((en) Seven Minutes in Heaven, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série The Heiresses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Heiresses, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Les Perfectionnistes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Perfectionnistes, Pocket Jeunesse, 2015 ((en) The Perfectionists, 2014)
+Parfaitement mortelles, Pocket Jeunesse, 2016 ((en) The Good Girls, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Les Amateurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Amateurs, Pocket Jeunesse, 2017 ((en) The Amateurs, 2016)
 Compte à rebours, Pocket Jeunesse, 2017 ((en) Follow Me, 2017)
-(en) Last Seen, 2018
-Romans indépendants
-(en) The Visibles, 2009
+(en) Last Seen, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sara_Shepard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) The Visibles, 2009
 (en) Everything We Ever Wanted, 2011
 (en) Wait for Me, 2022</t>
         </is>
